--- a/Test_files/Data/Rec_Tables/Mittlere Temperatur.xlsx
+++ b/Test_files/Data/Rec_Tables/Mittlere Temperatur.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="239">
   <si>
     <t>8.0</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kennfeld	</t>
+  </si>
+  <si>
+    <t>__ctt__Temperatur</t>
   </si>
 </sst>
 </file>
@@ -1216,12 +1219,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1543,2955 +1547,2959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138">
         <v>137</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
         <v>158</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
         <v>166</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170">
         <v>169</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174">
         <v>173</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176">
         <v>175</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178">
         <v>177</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179">
         <v>178</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184">
         <v>183</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186">
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194">
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203">
         <v>202</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204">
         <v>203</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210">
         <v>209</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212">
         <v>211</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213">
         <v>212</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214">
         <v>213</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215">
         <v>214</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216">
         <v>215</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217">
         <v>216</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218">
         <v>217</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219">
         <v>218</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220">
         <v>219</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221">
         <v>220</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222">
         <v>221</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223">
         <v>222</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224">
         <v>223</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225">
         <v>224</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226">
         <v>225</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227">
         <v>226</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228">
         <v>227</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229">
         <v>228</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230">
         <v>229</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231">
         <v>230</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232">
         <v>231</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233">
         <v>232</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234">
         <v>233</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235">
         <v>234</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236">
         <v>235</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237">
         <v>236</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238">
         <v>237</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239">
         <v>238</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240">
         <v>239</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241">
         <v>240</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242">
         <v>241</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243">
         <v>242</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244">
         <v>243</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245">
         <v>244</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246">
         <v>245</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247">
         <v>246</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248">
         <v>247</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249">
         <v>248</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250">
         <v>249</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251">
         <v>250</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252">
         <v>251</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253">
         <v>252</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254">
         <v>253</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255">
         <v>254</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256">
         <v>255</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257">
         <v>256</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258">
         <v>257</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259">
         <v>258</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260">
         <v>259</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261">
         <v>260</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262">
         <v>261</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263">
         <v>262</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264">
         <v>263</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265">
         <v>264</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266">
         <v>265</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267">
         <v>266</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268">
         <v>267</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269">
         <v>268</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270">
         <v>269</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271">
         <v>270</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272">
         <v>271</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273">
         <v>272</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274">
         <v>273</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275">
         <v>274</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276">
         <v>275</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277">
         <v>276</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278">
         <v>277</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279">
         <v>278</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280">
         <v>279</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281">
         <v>280</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282">
         <v>281</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283">
         <v>282</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284">
         <v>283</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285">
         <v>284</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286">
         <v>285</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287">
         <v>286</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288">
         <v>287</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289">
         <v>288</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290">
         <v>289</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291">
         <v>290</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292">
         <v>291</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293">
         <v>292</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294">
         <v>293</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295">
         <v>294</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296">
         <v>295</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297">
         <v>296</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298">
         <v>297</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299">
         <v>298</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300">
         <v>299</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301">
         <v>300</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302">
         <v>301</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303">
         <v>302</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304">
         <v>303</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305">
         <v>304</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306">
         <v>305</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307">
         <v>306</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308">
         <v>307</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309">
         <v>308</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310">
         <v>309</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311">
         <v>310</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312">
         <v>311</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313">
         <v>312</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314">
         <v>313</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315">
         <v>314</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316">
         <v>315</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317">
         <v>316</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318">
         <v>317</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319">
         <v>318</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320">
         <v>319</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321">
         <v>320</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322">
         <v>321</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323">
         <v>322</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324">
         <v>323</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C324" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325">
         <v>324</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C325" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326">
         <v>325</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327">
         <v>326</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328">
         <v>327</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329">
         <v>328</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330">
         <v>329</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331">
         <v>330</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332">
         <v>331</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333">
         <v>332</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B334">
         <v>333</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335">
         <v>334</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336">
         <v>335</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337">
         <v>336</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338">
         <v>337</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339">
         <v>338</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340">
         <v>339</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341">
         <v>340</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342">
         <v>341</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343">
         <v>342</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344">
         <v>343</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B345">
         <v>344</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B346">
         <v>345</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C346" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347">
         <v>346</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B348">
         <v>347</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349">
         <v>348</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350">
         <v>349</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351">
         <v>350</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B352">
         <v>351</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353">
         <v>352</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354">
         <v>353</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355">
         <v>354</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="C355" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356">
         <v>355</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="C356" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357">
         <v>356</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358">
         <v>357</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359">
         <v>358</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360">
         <v>359</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361">
         <v>360</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362">
         <v>361</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C362" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363">
         <v>362</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364">
         <v>363</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365">
         <v>364</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366">
         <v>365</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367">
         <v>366</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
